--- a/vcf-virtual-deployment-parameter-template.xlsx
+++ b/vcf-virtual-deployment-parameter-template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdaneri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F97E92D-BF2E-A84E-8002-0C06DE809591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57159D8-DD7A-9540-B1E8-8EC7C48C9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="103360" yWindow="-2220" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="542">
   <si>
     <t>About</t>
   </si>
@@ -2350,6 +2350,33 @@
   </si>
   <si>
     <t>VLAN-10</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx05</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx06</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx07</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx08</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx09</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx10</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx11</t>
+  </si>
+  <si>
+    <t>sfo01-m01-esx12</t>
+  </si>
+  <si>
+    <t>Worklod Domain</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3470,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3820,6 +3847,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -4090,10 +4125,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -4101,6 +4132,59 @@
     <xf numFmtId="165" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="9" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="9" borderId="12" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="9" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4115,16 +4199,58 @@
     <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="137">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFE6B9B8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4147,6 +4273,40 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4313,16 +4473,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF595959"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF303030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -4330,6 +4480,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4725,6 +4885,18 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FF000000"/>
@@ -4732,18 +4904,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4850,41 +5010,6 @@
           <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5268,7 +5393,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF9C0001"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -5280,7 +5405,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C0001"/>
       </font>
       <fill>
         <patternFill>
@@ -6404,8 +6529,8 @@
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168807</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6037385</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>30340</xdr:rowOff>
     </xdr:to>
@@ -6427,7 +6552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9360"/>
-          <a:ext cx="13262507" cy="1430680"/>
+          <a:ext cx="23104231" cy="1427749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6441,16 +6566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>283308</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>100554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1605879</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>733155</xdr:rowOff>
+      <xdr:rowOff>684309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6469,8 +6594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10515600" y="149400"/>
-          <a:ext cx="1324525" cy="583755"/>
+          <a:off x="17350154" y="100554"/>
+          <a:ext cx="1322571" cy="583755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7078,12 +7203,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMJ572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15"/>
@@ -7146,11 +7272,11 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:15" s="3" customFormat="1" ht="47" customHeight="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="140" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
         <v>494</v>
@@ -7170,127 +7296,127 @@
     </row>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="13" thickBot="1"/>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="143"/>
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="14" customHeight="1">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="144" t="s">
         <v>455</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
     </row>
     <row r="8" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
     </row>
     <row r="10" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
     </row>
     <row r="11" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
     </row>
     <row r="12" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
     </row>
     <row r="13" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
     </row>
     <row r="14" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
     </row>
     <row r="15" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="149"/>
     </row>
     <row r="16" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B22" s="148"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
     </row>
     <row r="23" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="132"/>
@@ -7301,64 +7427,64 @@
     </row>
     <row r="24" spans="2:6" s="2" customFormat="1" ht="13" thickBot="1"/>
     <row r="25" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
     </row>
     <row r="26" spans="2:6" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="B26" s="152" t="s">
+      <c r="B26" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
     </row>
     <row r="27" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
     </row>
     <row r="28" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
     </row>
     <row r="29" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
     </row>
     <row r="30" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
     </row>
     <row r="31" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
     </row>
     <row r="32" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="12"/>
     <row r="34" s="2" customFormat="1" ht="12"/>
@@ -7917,7 +8043,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AMJ70"/>
@@ -7947,11 +8073,11 @@
     </row>
     <row r="2" spans="2:7" ht="2.25" customHeight="1"/>
     <row r="3" spans="2:7" s="13" customFormat="1" ht="69" customHeight="1">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -7981,11 +8107,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
       <c r="B8" s="23" t="s">
@@ -7997,11 +8123,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
     </row>
     <row r="10" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
       <c r="B10" s="23" t="s">
@@ -8022,11 +8148,11 @@
       </c>
     </row>
     <row r="12" spans="2:7" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="156" t="s">
         <v>378</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8057,11 +8183,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" s="28" customFormat="1" ht="16" customHeight="1">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8333,69 +8459,69 @@
     <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="132" priority="13">
+    <cfRule type="expression" dxfId="136" priority="13">
       <formula>LEN(C8)&gt;40</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="14">
+    <cfRule type="expression" dxfId="135" priority="14">
       <formula>LEN(C8)&lt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="130" priority="1">
+    <cfRule type="expression" dxfId="134" priority="1">
       <formula>LEN($C$10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="129" priority="9">
+    <cfRule type="expression" dxfId="133" priority="9">
       <formula>AND(LEN(C10)&gt;0,LEN(C10)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="128" priority="2">
+    <cfRule type="expression" dxfId="132" priority="2">
       <formula>LEN($C$11)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="127" priority="3">
+    <cfRule type="expression" dxfId="131" priority="3">
       <formula>LEN($C$13)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="126" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="10" stopIfTrue="1">
       <formula>AND(LEN(C13)&gt;0,LEN(C13)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="125" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="4" stopIfTrue="1">
       <formula>LEN($C$14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="124" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>LEN($C$15)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="15" stopIfTrue="1">
       <formula>AND(LEN(C15)&gt;0,LEN(C15)&lt;12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
       <formula>LEN($C$17)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="12" stopIfTrue="1">
       <formula>AND(LEN(C17)&gt;0,LEN(C17)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="120" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
       <formula>LEN($C$18)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="17" stopIfTrue="1">
       <formula>AND(LEN(C18)&gt;0,LEN(C18)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="118" priority="18">
+    <cfRule type="expression" dxfId="122" priority="18">
       <formula>LEN(C19)&lt;12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8425,12 +8551,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMJ157"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15"/>
@@ -8461,19 +8588,19 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:29" s="38" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
     </row>
     <row r="4" spans="1:29" s="17" customFormat="1" ht="4" customHeight="1">
       <c r="A4" s="41"/>
@@ -8507,21 +8634,21 @@
     </row>
     <row r="5" spans="1:29" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="37"/>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="163" t="s">
+      <c r="I5" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
@@ -8819,15 +8946,15 @@
       <c r="AC11" s="37"/>
     </row>
     <row r="12" spans="1:29" s="37" customFormat="1" ht="16" customHeight="1">
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174" t="s">
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="35"/>
       <c r="I12" s="67" t="s">
         <v>46</v>
@@ -8845,142 +8972,142 @@
       <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="163" t="s">
         <v>480</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="178" t="s">
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="180" t="s">
         <v>479</v>
       </c>
-      <c r="F13" s="178"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="35"/>
       <c r="I13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="185"/>
-      <c r="L13" s="186" t="s">
+      <c r="K13" s="187"/>
+      <c r="L13" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="186"/>
+      <c r="M13" s="188"/>
     </row>
     <row r="14" spans="1:29" ht="16" customHeight="1">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="178" t="s">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="180"/>
       <c r="G14" s="35"/>
       <c r="I14" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="180" t="s">
+      <c r="J14" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="180"/>
-      <c r="L14" s="181" t="s">
+      <c r="K14" s="182"/>
+      <c r="L14" s="183" t="s">
         <v>391</v>
       </c>
-      <c r="M14" s="182"/>
+      <c r="M14" s="184"/>
     </row>
     <row r="15" spans="1:29" ht="16" customHeight="1">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162">
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="164">
         <v>9000</v>
       </c>
-      <c r="F15" s="179"/>
+      <c r="F15" s="181"/>
       <c r="G15" s="35"/>
       <c r="I15" s="70" t="str">
         <f>IF(AND(I6&lt;&gt;"n/a",I6&lt;&gt;""),I6,I7)</f>
         <v>sfo01-m01-esx01</v>
       </c>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
     </row>
     <row r="16" spans="1:29" ht="16" customHeight="1">
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="166" t="s">
         <v>427</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="175" t="s">
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="177" t="s">
         <v>428</v>
       </c>
-      <c r="F16" s="176"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="35"/>
       <c r="I16" s="70" t="str">
         <f>IF(AND(J6&lt;&gt;"n/a",J6&lt;&gt;""),J6,J7)</f>
         <v>sfo01-m01-esx02</v>
       </c>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
     </row>
     <row r="17" spans="2:13" ht="16" customHeight="1">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174" t="s">
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="174"/>
+      <c r="F17" s="176"/>
       <c r="G17" s="35"/>
       <c r="I17" s="70" t="str">
         <f>IF(AND(K6&lt;&gt;"n/a",K6&lt;&gt;""),K6,K7)</f>
         <v>sfo01-m01-esx03</v>
       </c>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
     </row>
     <row r="18" spans="2:13" ht="16" customHeight="1">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="163" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="162" t="s">
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="162"/>
+      <c r="F18" s="164"/>
       <c r="G18" s="35"/>
       <c r="H18" s="71"/>
       <c r="I18" s="72" t="str">
         <f>IF(AND(L6&lt;&gt;"n/a",L6&lt;&gt;""),L6,L7)</f>
         <v>sfo01-m01-esx04</v>
       </c>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
     </row>
     <row r="19" spans="2:13" ht="16" customHeight="1">
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="166" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167" t="s">
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="168"/>
+      <c r="F19" s="170"/>
       <c r="G19" s="35"/>
       <c r="H19" s="71"/>
       <c r="I19" s="35"/>
@@ -8989,34 +9116,34 @@
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="2:13" ht="16" customHeight="1">
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="162" t="s">
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="162"/>
+      <c r="F20" s="164"/>
       <c r="G20" s="35"/>
-      <c r="I20" s="163" t="str">
+      <c r="I20" s="165" t="str">
         <f>IF(K24="No","NSX Host Overlay Network - DHCP","NSX Host Overlay Network - Static IP Pool in NSX")</f>
         <v>NSX Host Overlay Network - DHCP</v>
       </c>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
     </row>
     <row r="21" spans="2:13" s="35" customFormat="1" ht="16" customHeight="1">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="170">
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="172">
         <v>9000</v>
       </c>
-      <c r="F21" s="170"/>
+      <c r="F21" s="172"/>
     </row>
     <row r="22" spans="2:13" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="I22" s="73" t="s">
@@ -9032,64 +9159,64 @@
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="172"/>
+      <c r="F23" s="174"/>
     </row>
     <row r="24" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B24" s="159" t="str">
+      <c r="B24" s="161" t="str">
         <f>IF(E23="Profile-1",Lookup_Lists!C2,IF(E23="Profile-2",IF(OR(E16="Overlay/VLAN",E16="Overlay"),Lookup_Lists!C3,Lookup_Lists!C4),IF(E23="Profile-3",Lookup_Lists!C5,)))</f>
         <v>vSphere Distributed Switch = One (1)          /          Physical NICs = Two (2) or  Four (4)
 Primary vDS - sfo-m01-cluster-001-vds-001
      -  Traffic for Management, vMotion, vSAN, Host Overlay - e.g. vmnic0,vmnic1</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="I24" s="171" t="s">
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="I24" s="173" t="s">
         <v>379</v>
       </c>
-      <c r="J24" s="171"/>
+      <c r="J24" s="173"/>
       <c r="K24" s="75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:13" s="35" customFormat="1" ht="16" customHeight="1">
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
       <c r="I25" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="160" t="s">
+      <c r="J25" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="160"/>
+      <c r="K25" s="162"/>
     </row>
     <row r="26" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
       <c r="I26" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="160" t="s">
+      <c r="J26" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="160"/>
+      <c r="K26" s="162"/>
     </row>
     <row r="27" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
       <c r="I27" s="78" t="s">
         <v>24</v>
       </c>
@@ -9104,11 +9231,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
       <c r="I28" s="82" t="s">
         <v>380</v>
       </c>
@@ -9123,18 +9250,18 @@
       </c>
     </row>
     <row r="29" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
     </row>
     <row r="30" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
       <c r="I30" s="86"/>
     </row>
     <row r="31" spans="2:13" s="35" customFormat="1" ht="12">
@@ -9360,208 +9487,208 @@
     <mergeCell ref="E23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:F21">
-    <cfRule type="expression" dxfId="117" priority="113">
+    <cfRule type="expression" dxfId="121" priority="113">
       <formula>$E$23="Profile-1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="expression" dxfId="116" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="16" stopIfTrue="1">
       <formula>IF($E$23="Profile-3",AND(OR($B$16="Overlay/VLAN",$B$16="Overlay")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E10">
-    <cfRule type="notContainsText" dxfId="115" priority="51" operator="notContains" text="/">
+    <cfRule type="notContainsText" dxfId="119" priority="51" operator="notContains" text="/">
       <formula>ISERROR(SEARCH("/",E8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="114" priority="23">
+    <cfRule type="expression" dxfId="118" priority="23">
       <formula>IF($E$22="Profile-1",AND($E$15="VLAN"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="24">
+      <formula>IF($E$22&lt;&gt;"Profile-1",AND($E$18="VLAN",$E$15="VLAN"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="25">
+      <formula>IF($E$22="Profile-1",AND($E$15="n/a"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="26">
+      <formula>IF(AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")),(OR($E$18="Overlay/VLAN",$E$18="Overlay")))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="27">
+      <formula>IF($E$22="Profile-3",AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")))</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="113" priority="28">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="27">
-      <formula>IF($E$22="Profile-3",AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="26">
-      <formula>IF(AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")),(OR($E$18="Overlay/VLAN",$E$18="Overlay")))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="25">
-      <formula>IF($E$22="Profile-1",AND($E$15="n/a"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="24">
-      <formula>IF($E$22&lt;&gt;"Profile-1",AND($E$18="VLAN",$E$15="VLAN"))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="108" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="33" stopIfTrue="1">
       <formula>IF(AND(OR($E$16="Overlay/VLAN",$E$16="Overlay")),(OR($E$19="Overlay/VLAN",$E$19="Overlay")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F9">
-    <cfRule type="expression" dxfId="107" priority="13">
+    <cfRule type="expression" dxfId="111" priority="13">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F15">
-    <cfRule type="expression" dxfId="106" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="6">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="90" stopIfTrue="1">
       <formula>AND(E13&lt;&gt;"n/a",IF(E13=E18, TRUE, FALSE))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6">
-      <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="104" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="146" stopIfTrue="1">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="containsBlanks" dxfId="103" priority="152" stopIfTrue="1">
-      <formula>LEN(TRIM(E19))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="29">
+    <cfRule type="expression" dxfId="107" priority="29">
       <formula>IF($E$23&lt;&gt;"Profile-1",AND($E$19="VLAN",$E$16="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="32">
+    <cfRule type="expression" dxfId="106" priority="32">
       <formula>IF($E$23&lt;&gt;"Profile-1",AND($E$19="VLAN",$E$16="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="35" stopIfTrue="1">
       <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="36">
+    <cfRule type="expression" dxfId="104" priority="36">
       <formula>IF($E$23="Profile-2",AND($E$19="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="37">
+    <cfRule type="expression" dxfId="103" priority="37">
       <formula>IF($E$23="Profile-1",AND($E$19&lt;&gt;"n/a"))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="102" priority="152" stopIfTrue="1">
+      <formula>LEN(TRIM(E19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="97" priority="95">
+    <cfRule type="expression" dxfId="101" priority="95">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="96" priority="104">
-      <formula>IF($E$23="Profile-1",AND($E$18&lt;&gt;"n/a"))</formula>
+    <cfRule type="expression" dxfId="100" priority="102">
+      <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="103">
+    <cfRule type="expression" dxfId="99" priority="103">
       <formula>IF($E$23="Profile-2",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="102">
-      <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
+    <cfRule type="expression" dxfId="98" priority="104">
+      <formula>IF($E$23="Profile-1",AND($E$18&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8">
-    <cfRule type="containsText" dxfId="93" priority="14" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="97" priority="14" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="92" priority="98">
+    <cfRule type="expression" dxfId="96" priority="98">
       <formula>#REF!="TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F10">
-    <cfRule type="expression" dxfId="91" priority="21">
+    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="21">
       <formula>IF(LEN(F7)-LEN(SUBSTITUTE(F7,".",""))=3,0,1)</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="20" operator="containsText" text="n/a">
-      <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G10">
-    <cfRule type="expression" dxfId="89" priority="19">
+    <cfRule type="expression" dxfId="93" priority="19">
       <formula>LEN(TRIM(F7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G10">
-    <cfRule type="cellIs" dxfId="88" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="22" operator="lessThan">
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="91" priority="88">
       <formula>IF(ISNUMBER(FIND(".",G22)),IF((FIND(".",G22)-1)&gt;15,0,0),IF((LEN(G22))&gt;15,0,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>AND($I$6="n/a",$I$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="85" priority="9">
+    <cfRule type="expression" dxfId="89" priority="9">
       <formula>AND(I7&lt;&gt;"n/a",COUNTIF($I$7:$L$7,I7)&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="65" stopIfTrue="1">
       <formula>AND(I6="n/a",IF(LEN(I7)-LEN(SUBSTITUTE(I7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:K26 I27:L28">
-    <cfRule type="expression" dxfId="83" priority="107">
+    <cfRule type="expression" dxfId="87" priority="107">
       <formula>$K$24="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:L6">
-    <cfRule type="expression" dxfId="82" priority="60">
+    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
+      <formula>IF(I6&lt;&gt;"n/a",COUNTIF($I$6:$P$6,I6)&gt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="60">
       <formula>AND(I7="n/a",I6="n/a")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="10" stopIfTrue="1">
-      <formula>IF(I6&lt;&gt;"n/a",COUNTIF($I$6:$P$6,I6)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M18">
-    <cfRule type="expression" dxfId="80" priority="87">
+    <cfRule type="expression" dxfId="84" priority="87">
       <formula>$K$12="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
       <formula>AND($J$6="n/a",$J$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="78" priority="67">
+    <cfRule type="expression" dxfId="82" priority="64">
+      <formula>AND(J7&lt;&gt;"n/a",COUNTIF(I7:P7,J7)&gt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="67">
       <formula>AND(J6="n/a",J7&lt;&gt;"n/a",IF(LEN(J7)-LEN(SUBSTITUTE(J7,".",""))=3,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="64">
-      <formula>AND(J7&lt;&gt;"n/a",COUNTIF(I7:P7,J7)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 L8:L9 J14:M18">
-    <cfRule type="expression" dxfId="76" priority="57">
+    <cfRule type="expression" dxfId="80" priority="57">
       <formula>LEN(TRIM(J8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="79" priority="75" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
       <formula>AND($K$6="n/a",$K$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="73" priority="7">
+    <cfRule type="expression" dxfId="77" priority="7">
       <formula>AND(K7&lt;&gt;"n/a",COUNTIF($I$7:$L$7,K7)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="expression" dxfId="72" priority="69">
+    <cfRule type="expression" dxfId="76" priority="69">
       <formula>AND(K6="n/a",IF(LEN(K7)-LEN(SUBSTITUTE(K7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7">
-    <cfRule type="expression" dxfId="71" priority="5">
+    <cfRule type="expression" dxfId="75" priority="5">
       <formula>AND($L$6="n/a",$L$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="containsText" dxfId="70" priority="79" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",L8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9618,13 +9745,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AMJ79"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
       <selection pane="bottomLeft" activeCell="J29" sqref="J29:K29"/>
     </sheetView>
@@ -9657,18 +9784,18 @@
       <c r="C2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="199" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
     </row>
     <row r="4" spans="2:11" s="17" customFormat="1" ht="2.25" customHeight="1">
       <c r="B4" s="90"/>
@@ -9684,18 +9811,18 @@
       <c r="E5" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="189" t="s">
+      <c r="F5" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="189"/>
+      <c r="G5" s="191"/>
       <c r="H5" s="95"/>
       <c r="I5" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="198" t="s">
+      <c r="J5" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="198"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="2:11" s="17" customFormat="1" ht="12">
       <c r="B6" s="97" t="str">
@@ -9708,18 +9835,18 @@
       <c r="E6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="199" t="s">
+      <c r="F6" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="199"/>
+      <c r="G6" s="201"/>
       <c r="H6" s="99"/>
       <c r="I6" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="200" t="s">
+      <c r="J6" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="200"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B7" s="97" t="str">
@@ -9732,25 +9859,25 @@
       <c r="E7" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="199"/>
+      <c r="G7" s="201"/>
       <c r="H7" s="90"/>
     </row>
     <row r="8" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E8" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="199"/>
+      <c r="G8" s="201"/>
       <c r="H8" s="90"/>
-      <c r="I8" s="201" t="s">
+      <c r="I8" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="203"/>
       <c r="K8" s="100" t="s">
         <v>64</v>
       </c>
@@ -9759,15 +9886,15 @@
       <c r="E9" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="199"/>
+      <c r="G9" s="201"/>
       <c r="H9" s="90"/>
-      <c r="I9" s="201" t="s">
+      <c r="I9" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="201"/>
+      <c r="J9" s="203"/>
       <c r="K9" s="100" t="s">
         <v>64</v>
       </c>
@@ -9783,17 +9910,17 @@
       <c r="E11" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="193" t="s">
+      <c r="F11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="194"/>
+      <c r="G11" s="196"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="196" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(F11="Yes","","If you select No for License Now, Cloud Builder deploys the VCF components in evaluation mode. After bring-up, you must switch to licensed mode by adding license keys in the SDDC Manager UI (component license keys) or vSphere Client (solution license key)")</f>
         <v>If you select No for License Now, Cloud Builder deploys the VCF components in evaluation mode. After bring-up, you must switch to licensed mode by adding license keys in the SDDC Manager UI (component license keys) or vSphere Client (solution license key)</v>
       </c>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="102" t="str">
@@ -9806,41 +9933,41 @@
       <c r="E12" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
       <c r="H12" s="90"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E13" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="90"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
     </row>
     <row r="14" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E14" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
       <c r="H14" s="90"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
     </row>
     <row r="15" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E15" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
       <c r="H15" s="90"/>
     </row>
     <row r="16" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
@@ -9876,10 +10003,10 @@
       <c r="I18" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="189" t="s">
+      <c r="J18" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="189"/>
+      <c r="K18" s="191"/>
     </row>
     <row r="19" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="97" t="str">
@@ -9899,10 +10026,10 @@
       <c r="I19" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="J19" s="188" t="s">
+      <c r="J19" s="190" t="s">
         <v>478</v>
       </c>
-      <c r="K19" s="188"/>
+      <c r="K19" s="190"/>
       <c r="M19" s="122" t="s">
         <v>422</v>
       </c>
@@ -9925,10 +10052,10 @@
       <c r="I20" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="195" t="s">
+      <c r="J20" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="195"/>
+      <c r="K20" s="197"/>
       <c r="M20" s="122" t="s">
         <v>421</v>
       </c>
@@ -9945,10 +10072,10 @@
       <c r="I21" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="J21" s="195" t="s">
+      <c r="J21" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="195"/>
+      <c r="K21" s="197"/>
       <c r="M21" s="122"/>
     </row>
     <row r="22" spans="2:26" s="17" customFormat="1" ht="12">
@@ -9962,18 +10089,18 @@
       <c r="E22" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="189" t="s">
+      <c r="F22" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="189"/>
+      <c r="G22" s="191"/>
       <c r="H22" s="90"/>
       <c r="I22" s="98" t="s">
         <v>405</v>
       </c>
-      <c r="J22" s="200" t="s">
+      <c r="J22" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="200"/>
+      <c r="K22" s="202"/>
     </row>
     <row r="23" spans="2:26" s="17" customFormat="1" ht="13" customHeight="1">
       <c r="B23" s="106" t="str">
@@ -9986,17 +10113,17 @@
       <c r="E23" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="F23" s="188" t="s">
+      <c r="F23" s="190" t="s">
         <v>464</v>
       </c>
-      <c r="G23" s="188"/>
+      <c r="G23" s="190"/>
       <c r="H23" s="90"/>
-      <c r="I23" s="202" t="str">
+      <c r="I23" s="204" t="str">
         <f>IF(F25="No","You have disabled vLCM Cluster Image, as a result vSAN-ESA cannot be enabled and the value set in the Enable vSAN-ESA field will be ignored.",IF(AND(OR(J22="n/a",J22=""),J21="Yes"), M19&amp;M20,""))</f>
         <v/>
       </c>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
     </row>
     <row r="24" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="106" t="str">
@@ -10009,14 +10136,14 @@
       <c r="E24" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="F24" s="188" t="s">
+      <c r="F24" s="190" t="s">
         <v>471</v>
       </c>
-      <c r="G24" s="188"/>
+      <c r="G24" s="190"/>
       <c r="H24" s="90"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="204"/>
       <c r="L24" s="90"/>
       <c r="M24" s="90"/>
       <c r="N24" s="90"/>
@@ -10037,14 +10164,14 @@
       <c r="E25" s="98" t="s">
         <v>393</v>
       </c>
-      <c r="F25" s="193" t="s">
+      <c r="F25" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="194"/>
+      <c r="G25" s="196"/>
       <c r="H25" s="90"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
       <c r="L25" s="90"/>
       <c r="M25" s="90"/>
       <c r="N25" s="90"/>
@@ -10065,18 +10192,18 @@
       <c r="E26" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="205" t="s">
+      <c r="F26" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="205"/>
+      <c r="G26" s="207"/>
       <c r="H26" s="90"/>
       <c r="I26" s="103" t="s">
         <v>416</v>
       </c>
-      <c r="J26" s="193" t="s">
+      <c r="J26" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="194"/>
+      <c r="K26" s="196"/>
       <c r="L26" s="90"/>
       <c r="M26" s="90"/>
       <c r="N26" s="90"/>
@@ -10098,10 +10225,10 @@
       <c r="I27" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="J27" s="203" t="s">
+      <c r="J27" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="204"/>
+      <c r="K27" s="206"/>
       <c r="L27" s="90"/>
       <c r="M27" s="90"/>
       <c r="N27" s="90"/>
@@ -10122,18 +10249,18 @@
       <c r="E28" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="200" t="s">
+      <c r="F28" s="202" t="s">
         <v>482</v>
       </c>
-      <c r="G28" s="200"/>
+      <c r="G28" s="202"/>
       <c r="H28" s="90"/>
       <c r="I28" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="J28" s="203" t="s">
+      <c r="J28" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="204"/>
+      <c r="K28" s="206"/>
       <c r="L28" s="90"/>
       <c r="M28" s="90"/>
       <c r="N28" s="90"/>
@@ -10154,18 +10281,18 @@
       <c r="E29" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="189" t="s">
+      <c r="F29" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="189"/>
+      <c r="G29" s="191"/>
       <c r="H29" s="90"/>
       <c r="I29" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="J29" s="203" t="s">
+      <c r="J29" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="204"/>
+      <c r="K29" s="206"/>
       <c r="L29" s="90"/>
       <c r="M29" s="90"/>
       <c r="N29" s="90"/>
@@ -10186,18 +10313,18 @@
       <c r="E30" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="F30" s="188" t="s">
+      <c r="F30" s="190" t="s">
         <v>472</v>
       </c>
-      <c r="G30" s="188"/>
+      <c r="G30" s="190"/>
       <c r="H30" s="90"/>
       <c r="I30" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="J30" s="203" t="s">
+      <c r="J30" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="204"/>
+      <c r="K30" s="206"/>
       <c r="L30" s="90"/>
       <c r="M30" s="90"/>
       <c r="N30" s="90"/>
@@ -10218,18 +10345,18 @@
       <c r="E31" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="F31" s="188" t="s">
+      <c r="F31" s="190" t="s">
         <v>473</v>
       </c>
-      <c r="G31" s="188"/>
+      <c r="G31" s="190"/>
       <c r="H31" s="90"/>
       <c r="I31" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="J31" s="193" t="s">
+      <c r="J31" s="195" t="s">
         <v>439</v>
       </c>
-      <c r="K31" s="194"/>
+      <c r="K31" s="196"/>
       <c r="L31" s="90"/>
       <c r="M31" s="90"/>
       <c r="N31" s="90"/>
@@ -10250,18 +10377,18 @@
       <c r="E32" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="F32" s="188" t="s">
+      <c r="F32" s="190" t="s">
         <v>474</v>
       </c>
-      <c r="G32" s="188"/>
+      <c r="G32" s="190"/>
       <c r="H32" s="90"/>
-      <c r="I32" s="212" t="s">
+      <c r="I32" s="214" t="s">
         <v>438</v>
       </c>
-      <c r="J32" s="206" t="s">
+      <c r="J32" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="207"/>
+      <c r="K32" s="209"/>
       <c r="L32" s="90"/>
       <c r="M32" s="90"/>
       <c r="N32" s="90"/>
@@ -10286,18 +10413,18 @@
       <c r="F33" s="133"/>
       <c r="G33" s="133"/>
       <c r="H33" s="107"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="209"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="211"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133"/>
       <c r="H34" s="107"/>
-      <c r="I34" s="214"/>
-      <c r="J34" s="210"/>
-      <c r="K34" s="211"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="212"/>
+      <c r="K34" s="213"/>
       <c r="L34" s="131" t="str">
         <f>CLEAN(J32)</f>
         <v>n/a</v>
@@ -10314,12 +10441,12 @@
     </row>
     <row r="35" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="H35" s="107"/>
-      <c r="I35" s="202" t="str">
+      <c r="I35" s="204" t="str">
         <f>IF(AND(J27="n/a",J28&lt;&gt;"n/a"),"Proxy port is specified, but proxy server is missing.",IF(AND(J27&lt;&gt;"n/a",J28="n/a"),"Proxy server is specified, but proxy port is missing.",IF(AND(OR(J27="n/a",J28="n/a"),OR(J29&lt;&gt;"n/a",J30&lt;&gt;"n/a",J26="Yes")),"Proxy server and port are mandatory.",IF(AND(J29&lt;&gt;"n/a",J30="n/a"),"Proxy username is specified, but proxy password is missing.",IF(AND(J29="n/a",J30&lt;&gt;"n/a"),"Proxy password is specified, but proxy username is missing.","")))))</f>
         <v/>
       </c>
-      <c r="J35" s="202"/>
-      <c r="K35" s="202"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
       <c r="L35" s="90"/>
       <c r="M35" s="90"/>
       <c r="N35" s="90"/>
@@ -10333,8 +10460,8 @@
     </row>
     <row r="36" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E36" s="136"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
       <c r="H36" s="107"/>
       <c r="L36" s="90"/>
       <c r="M36" s="90"/>
@@ -10507,10 +10634,10 @@
       <c r="E44" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="189" t="s">
+      <c r="F44" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="189"/>
+      <c r="G44" s="191"/>
       <c r="H44" s="87"/>
       <c r="L44" s="90"/>
       <c r="M44" s="90"/>
@@ -10532,10 +10659,10 @@
       <c r="E45" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="187" t="s">
+      <c r="F45" s="189" t="s">
         <v>460</v>
       </c>
-      <c r="G45" s="187"/>
+      <c r="G45" s="189"/>
       <c r="H45" s="87"/>
       <c r="L45" s="90"/>
       <c r="M45" s="90"/>
@@ -10559,10 +10686,10 @@
       <c r="E46" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="190" t="s">
+      <c r="F46" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="190"/>
+      <c r="G46" s="192"/>
       <c r="L46" s="90"/>
       <c r="M46" s="90"/>
       <c r="N46" s="90"/>
@@ -10578,10 +10705,10 @@
       <c r="E47" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="187" t="s">
+      <c r="F47" s="189" t="s">
         <v>481</v>
       </c>
-      <c r="G47" s="187"/>
+      <c r="G47" s="189"/>
       <c r="L47" s="90"/>
       <c r="M47" s="90"/>
       <c r="N47" s="90"/>
@@ -10609,10 +10736,10 @@
       <c r="E49" s="93" t="s">
         <v>453</v>
       </c>
-      <c r="F49" s="188" t="s">
+      <c r="F49" s="190" t="s">
         <v>454</v>
       </c>
-      <c r="G49" s="188"/>
+      <c r="G49" s="190"/>
       <c r="L49" s="90"/>
       <c r="M49" s="90"/>
       <c r="N49" s="90"/>
@@ -11037,230 +11164,230 @@
     <mergeCell ref="F36:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B7 B18:B24 B37:B38 B45:B46 B50:B306">
-    <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="55" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="63" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="111" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="62" priority="107">
+    <cfRule type="expression" dxfId="71" priority="107">
       <formula>#REF!="Standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:G15">
-    <cfRule type="expression" dxfId="61" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="32" stopIfTrue="1">
       <formula>$F$11="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:G32">
-    <cfRule type="expression" dxfId="60" priority="106">
+    <cfRule type="expression" dxfId="69" priority="106">
       <formula>$F$28="Standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="59" priority="73" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="67" priority="60">
       <formula>IF(LEN(F6)-LEN(SUBSTITUTE(F6,".",""))=3,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="56" priority="59" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="55" priority="71" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="64" priority="71" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="expression" dxfId="54" priority="134">
+    <cfRule type="expression" dxfId="63" priority="108">
+      <formula>IF(#REF!="",0,1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="62" priority="133" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="61" priority="134">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="108">
-      <formula>IF(#REF!="",0,1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="52" priority="133" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+      <formula>$F$18="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>LEN(TRIM(F18))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
-      <formula>$F$18="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="expression" dxfId="49" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="48" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="5">
+      <formula>$F$38="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="18" stopIfTrue="1">
       <formula>AND($F$38&lt;&gt;"n/a",IF($F$38&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$38)&gt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5">
-      <formula>$F$38="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="46" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="4">
+      <formula>$F$39="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
       <formula>AND($F$39&lt;&gt;"n/a",IF($F$39&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$39)&gt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
-      <formula>$F$39="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>$F$45="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="43" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>AND($F$18="n/a",$G$18="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="42" priority="80">
+    <cfRule type="expression" dxfId="51" priority="80">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:G38">
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>AND($F$38="n/a",$G$38="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:G41">
-    <cfRule type="expression" dxfId="40" priority="64">
+    <cfRule type="expression" dxfId="49" priority="64">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:G39">
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>AND($F$39="n/a",$G$39="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:G46">
-    <cfRule type="expression" dxfId="38" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
       <formula>AND($F$45="n/a",$F$46="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G46">
-    <cfRule type="expression" dxfId="37" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="83" stopIfTrue="1">
       <formula>AND($F$46&lt;&gt;"n/a",IF(LEN(F46)-LEN(SUBSTITUTE(F46,".",""))=3,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="85" stopIfTrue="1">
       <formula>LEN(TRIM(F46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:G49">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>LEN(TRIM(F49))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="68" stopIfTrue="1" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="43" priority="68" stopIfTrue="1" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="33" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
       <formula>AND($G$18&lt;&gt;"n/a",IF(LEN(G18)-LEN(SUBSTITUTE(G18,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="41" priority="14">
       <formula>AND($G$38&lt;&gt;"n/a",IF($G$38&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$38)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="31" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="15" stopIfTrue="1">
       <formula>AND($G$39&lt;&gt;"n/a",IF($G$39&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$39)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="30" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="38" priority="31">
       <formula>AND($J$27="n/a",OR($J$28&lt;&gt;"n/a",$J$29&lt;&gt;"n/a",$J$30&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
       <formula>AND($J$28="n/a",OR($J$27&lt;&gt;"n/a",$J$29&lt;&gt;"n/a",$J$30&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="27" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
       <formula>AND(OR($J$29="n/a",$J$29=""),$J$30&lt;&gt;"n/a",$J$30&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>AND($J$29&lt;&gt;"n/a",$J$29&lt;&gt;"",OR($J$30="n/a",$J$30=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>$J$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K6">
-    <cfRule type="containsText" dxfId="24" priority="76" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="33" priority="76" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="77">
+    <cfRule type="expression" dxfId="32" priority="77">
       <formula>LEN(TRIM(J6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:K19">
-    <cfRule type="top10" dxfId="22" priority="78" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="78" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="21" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="160" stopIfTrue="1">
       <formula>AND($F$25="Yes",$J$21="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K22">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$F$25="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="n/a">
+    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
+      <formula>$J$21="No"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="40" stopIfTrue="1">
-      <formula>$J$21="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K28">
-    <cfRule type="expression" dxfId="17" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
       <formula>AND($J$27="n/a",$J$28="n/a",$J$26="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K31">
-    <cfRule type="expression" dxfId="16" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>$J$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K34">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>$J$31="HTTP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11354,10 +11481,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A366FA-B2C9-2845-B503-D40191E11F36}">
-  <dimension ref="A1:ALX50"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:ALW35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11370,22 +11498,24 @@
     <col min="6" max="6" width="43.1640625" style="87" customWidth="1"/>
     <col min="7" max="7" width="9" style="87"/>
     <col min="8" max="8" width="24.83203125" style="87" customWidth="1"/>
-    <col min="9" max="9" width="77.5" style="87" customWidth="1"/>
-    <col min="10" max="1012" width="9" style="87"/>
+    <col min="9" max="9" width="39.33203125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="87" customWidth="1"/>
+    <col min="11" max="11" width="79.6640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="12" max="1011" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="111" customHeight="1">
+    <row r="1" spans="2:11" ht="111" customHeight="1">
       <c r="B1" s="88"/>
       <c r="C1" s="89"/>
       <c r="E1" s="87" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="17" customFormat="1" ht="4" customHeight="1">
+    <row r="2" spans="2:11" s="17" customFormat="1" ht="4" customHeight="1">
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
     </row>
-    <row r="3" spans="2:9" s="17" customFormat="1" ht="17" customHeight="1">
+    <row r="3" spans="2:11" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B3" s="91" t="s">
         <v>498</v>
       </c>
@@ -11393,17 +11523,19 @@
       <c r="E3" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="215" t="s">
+      <c r="F3" s="217" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="103" t="s">
         <v>499</v>
       </c>
-      <c r="I3" s="215" t="s">
+      <c r="I3" s="200" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" s="17" customFormat="1" ht="12">
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+    </row>
+    <row r="4" spans="2:11" s="17" customFormat="1" ht="12">
       <c r="C4" s="17" t="s">
         <v>497</v>
       </c>
@@ -11416,11 +11548,13 @@
       <c r="H4" s="98" t="s">
         <v>501</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="232" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+    </row>
+    <row r="5" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E5" s="98" t="s">
         <v>503</v>
       </c>
@@ -11430,11 +11564,13 @@
       <c r="H5" s="98" t="s">
         <v>505</v>
       </c>
-      <c r="I5" s="216" t="s">
+      <c r="I5" s="232" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+    </row>
+    <row r="6" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E6" s="98" t="s">
         <v>507</v>
       </c>
@@ -11442,7 +11578,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E7" s="98" t="s">
         <v>509</v>
       </c>
@@ -11450,8 +11586,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1"/>
-    <row r="9" spans="2:9" s="17" customFormat="1" ht="17" customHeight="1">
+    <row r="8" spans="2:11" s="17" customFormat="1" ht="18" customHeight="1"/>
+    <row r="9" spans="2:11" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B9" s="91" t="s">
         <v>511</v>
       </c>
@@ -11459,11 +11595,11 @@
       <c r="E9" s="93" t="s">
         <v>512</v>
       </c>
-      <c r="F9" s="215" t="s">
+      <c r="F9" s="217" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="17" customFormat="1" ht="12">
+    <row r="10" spans="2:11" s="17" customFormat="1" ht="12">
       <c r="C10" s="17" t="s">
         <v>497</v>
       </c>
@@ -11474,7 +11610,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E11" s="98" t="s">
         <v>93</v>
       </c>
@@ -11482,40 +11618,40 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E12" s="98" t="s">
         <v>516</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="139" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E13" s="98" t="s">
         <v>518</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="139" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E14" s="98" t="s">
         <v>519</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="139" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E15" s="98" t="s">
         <v>521</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="F15" s="139" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1"/>
-    <row r="17" spans="1:9" s="17" customFormat="1" ht="17" customHeight="1">
+    <row r="16" spans="2:11" s="17" customFormat="1" ht="18" customHeight="1"/>
+    <row r="17" spans="1:11" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B17" s="91" t="s">
         <v>522</v>
       </c>
@@ -11523,44 +11659,44 @@
       <c r="E17" s="93" t="s">
         <v>523</v>
       </c>
-      <c r="F17" s="215" t="s">
+      <c r="F17" s="217" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E18" s="98" t="s">
         <v>524</v>
       </c>
-      <c r="F18" s="217">
+      <c r="F18" s="218">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E19" s="98" t="s">
         <v>525</v>
       </c>
-      <c r="F19" s="218">
+      <c r="F19" s="219">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E20" s="98" t="s">
         <v>526</v>
       </c>
-      <c r="F20" s="218">
+      <c r="F20" s="219">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E21" s="98" t="str">
         <f>IF('Deploy Parameters'!J21 = "Yes", "ESA Disk 1", "Caching Disk")</f>
         <v>Caching Disk</v>
       </c>
-      <c r="F21" s="218">
+      <c r="F21" s="219">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14" customHeight="1">
+    <row r="22" spans="1:11" ht="14" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -11568,14 +11704,14 @@
         <f>IF('Deploy Parameters'!J21="Yes","ESA Disk 2","CapacityDisk")</f>
         <v>CapacityDisk</v>
       </c>
-      <c r="F22" s="218">
+      <c r="F22" s="219">
         <v>500</v>
       </c>
       <c r="G22" s="90"/>
       <c r="H22" s="90"/>
       <c r="I22" s="90"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="E23" s="98" t="s">
         <v>527</v>
       </c>
@@ -11586,7 +11722,7 @@
       <c r="H23" s="90"/>
       <c r="I23" s="90"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="E24" s="98" t="s">
         <v>529</v>
       </c>
@@ -11597,224 +11733,304 @@
       <c r="H24" s="90"/>
       <c r="I24" s="90"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="E25" s="98" t="s">
         <v>530</v>
       </c>
-      <c r="F25" s="137" t="s">
+      <c r="F25" s="139" t="s">
         <v>531</v>
       </c>
       <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19" thickBot="1">
+      <c r="B27" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="E27" s="220" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="221"/>
       <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="138"/>
+      <c r="K27" s="231" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="87" customFormat="1" ht="12">
+      <c r="E28" s="222" t="s">
+        <v>533</v>
+      </c>
+      <c r="F28" s="223" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="70" t="str">
+        <f>IF(AND(E28&lt;&gt;"n/a",E28&lt;&gt;""),E28,E29)</f>
+        <v>sfo01-m01-esx05</v>
+      </c>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="229"/>
+    </row>
+    <row r="29" spans="1:11" s="87" customFormat="1" ht="12">
+      <c r="E29" s="224" t="s">
+        <v>534</v>
+      </c>
+      <c r="F29" s="225" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="H29" s="70" t="str">
+        <f>IF(AND(E29&lt;&gt;"n/a",E29&lt;&gt;""),E29,E30)</f>
+        <v>sfo01-m01-esx06</v>
+      </c>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="229"/>
+    </row>
+    <row r="30" spans="1:11" s="87" customFormat="1" ht="12">
+      <c r="E30" s="224" t="s">
+        <v>535</v>
+      </c>
+      <c r="F30" s="225" t="s">
+        <v>59</v>
+      </c>
       <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="70" t="str">
+        <f t="shared" ref="H30:H35" si="0">IF(AND(E30&lt;&gt;"n/a",E30&lt;&gt;""),E30,E31)</f>
+        <v>sfo01-m01-esx07</v>
+      </c>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="228"/>
+    </row>
+    <row r="31" spans="1:11" s="87" customFormat="1" ht="12">
+      <c r="E31" s="224" t="s">
+        <v>536</v>
+      </c>
+      <c r="F31" s="225" t="s">
+        <v>59</v>
+      </c>
       <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>sfo01-m01-esx08</v>
+      </c>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="228"/>
+    </row>
+    <row r="32" spans="1:11" s="87" customFormat="1" ht="12">
+      <c r="E32" s="224" t="s">
+        <v>537</v>
+      </c>
+      <c r="F32" s="225" t="s">
+        <v>59</v>
+      </c>
       <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-    </row>
-    <row r="33" spans="7:9">
+      <c r="H32" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>sfo01-m01-esx09</v>
+      </c>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="228"/>
+    </row>
+    <row r="33" spans="5:11" s="87" customFormat="1" ht="12">
+      <c r="E33" s="224" t="s">
+        <v>538</v>
+      </c>
+      <c r="F33" s="225" t="s">
+        <v>59</v>
+      </c>
       <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="7:9">
+      <c r="H33" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>sfo01-m01-esx10</v>
+      </c>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="228"/>
+    </row>
+    <row r="34" spans="5:11" s="87" customFormat="1" ht="12">
+      <c r="E34" s="224" t="s">
+        <v>539</v>
+      </c>
+      <c r="F34" s="225" t="s">
+        <v>59</v>
+      </c>
       <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-    </row>
-    <row r="35" spans="7:9">
+      <c r="H34" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>sfo01-m01-esx11</v>
+      </c>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="228"/>
+    </row>
+    <row r="35" spans="5:11" s="87" customFormat="1" ht="13" thickBot="1">
+      <c r="E35" s="226" t="s">
+        <v>540</v>
+      </c>
+      <c r="F35" s="227" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="7:9">
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-    </row>
-    <row r="37" spans="7:9">
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="7:9">
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-    </row>
-    <row r="39" spans="7:9">
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-    </row>
-    <row r="40" spans="7:9">
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-    </row>
-    <row r="41" spans="7:9">
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-    </row>
-    <row r="42" spans="7:9">
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-    </row>
-    <row r="43" spans="7:9">
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-    </row>
-    <row r="44" spans="7:9">
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-    </row>
-    <row r="45" spans="7:9">
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="46" spans="7:9">
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-    </row>
-    <row r="47" spans="7:9">
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-    </row>
-    <row r="48" spans="7:9">
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="7:9">
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-    </row>
-    <row r="50" spans="7:9">
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
+      <c r="H35" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>sfo01-m01-esx12</v>
+      </c>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="228"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B9 B23:B278">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+  <mergeCells count="4">
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="E27:F27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B9 B23:B26 B28:B254">
+    <cfRule type="cellIs" dxfId="23" priority="158" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="22" priority="159">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="21" priority="160" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="157" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F18:F22">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="156" stopIfTrue="1">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="155" stopIfTrue="1">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F7">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="154" stopIfTrue="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="153" stopIfTrue="1">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="152" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="151" stopIfTrue="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="150" stopIfTrue="1">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="top10" dxfId="3" priority="14" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
-      <formula>AND($F$25="Yes",#REF!="Yes")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="12" priority="148">
       <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="11" priority="149" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" sqref="I5" xr:uid="{90BC73F7-6A55-7F4E-8C76-64405D185AFF}">
-      <formula1>"Yes,No"</formula1>
+  <conditionalFormatting sqref="I30:K33 H30:H35 H26:K29">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$K$10="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:K33">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>LEN(TRIM(I27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:K35">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$K$10="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:K35">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>LEN(TRIM(I32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
+    <cfRule type="top10" dxfId="6" priority="164" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"✓"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" sqref="F12 F14:F15 F25" xr:uid="{A6FAC99C-8B5F-6D42-B102-9A586702398F}">
+      <formula1>IF(ISNUMBER(VALUE(SUBSTITUTE(F12,".",""))),AND(--LEFT(F12,FIND(".",F12)-1)&lt;256,--MID(SUBSTITUTE(F12,".",REPT(" ",99)),99,99)&lt;256,--MID(SUBSTITUTE(F12,".",REPT(" ",99)),198,99)&lt;256,--RIGHT(SUBSTITUTE(F12,".",REPT(" ",99)),99)&lt;256),F12="n/a")</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" sqref="F12 F14:F15 F25" xr:uid="{A6FAC99C-8B5F-6D42-B102-9A586702398F}">
-      <formula1>IF(ISNUMBER(VALUE(SUBSTITUTE(F12,".",""))),AND(--LEFT(F12,FIND(".",F12)-1)&lt;256,--MID(SUBSTITUTE(F12,".",REPT(" ",99)),99,99)&lt;256,--MID(SUBSTITUTE(F12,".",REPT(" ",99)),198,99)&lt;256,--RIGHT(SUBSTITUTE(F12,".",REPT(" ",99)),99)&lt;256),F12="n/a")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" sqref="F30:F35 F28" xr:uid="{ADFFC761-2116-814C-8EFF-C70C765BAE56}">
+      <formula1>IF(ISNUMBER(VALUE(SUBSTITUTE(F28,".",""))),AND(--LEFT(F28,FIND(".",F28)-1)&lt;256,--MID(SUBSTITUTE(F28,".",REPT(" ",99)),99,99)&lt;256,--MID(SUBSTITUTE(F28,".",REPT(" ",99)),198,99)&lt;256,--RIGHT(SUBSTITUTE(F28,".",REPT(" ",99)),99)&lt;256),F28="n/a")</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address " error="Please enter a valid IP Address" sqref="F29" xr:uid="{A301B51E-9245-374B-9476-2736D6404D88}">
+      <formula1>IF(ISNUMBER(VALUE(SUBSTITUTE(F29,".",""))),AND(--LEFT(F29,FIND(".",F29)-1)&lt;256,--MID(SUBSTITUTE(F29,".",REPT(" ",99)),99,99)&lt;256,--MID(SUBSTITUTE(F29,".",REPT(" ",99)),198,99)&lt;256,--RIGHT(SUBSTITUTE(F29,".",REPT(" ",99)),99)&lt;256),F29="n/a")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hostname Length" prompt="The length of the ESXi hostname must not exceed 15 characters, this is to accomodate NetBIOS naming and allows for joining the system to an Active Directory Domain." sqref="E28:E35" xr:uid="{7079AB15-9DD2-AB47-8FB3-B085F617F38B}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" promptTitle="Validate Thumbprints" prompt="Choosing not to validate the Security Thumbprints results in the initial connection to not be trusted, subsequent communication is then trusted. To ensure all communication including the initial connection is trusted provide the SSH and SSL" sqref="J25" xr:uid="{36F90EA6-FCA2-0742-ACEE-1B1DF899209F}">
+      <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11826,6 +12042,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -12011,6 +12228,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AMJ187"/>
   <sheetViews>
     <sheetView topLeftCell="B146" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -13363,27 +13581,27 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A80:B89" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <conditionalFormatting sqref="A1:A78 A80:A103 A105:A110 A112:A117 A119:A123 A126:A180 A187:A1048576">
-    <cfRule type="containsText" dxfId="69" priority="4" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A108 A170:A178">
-    <cfRule type="beginsWith" dxfId="68" priority="5" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="4" priority="5" operator="beginsWith" text="#">
       <formula>LEFT(A104,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:A115">
-    <cfRule type="beginsWith" dxfId="67" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="3" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A111,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A122">
-    <cfRule type="beginsWith" dxfId="66" priority="7" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="2" priority="7" operator="beginsWith" text="#">
       <formula>LEFT(A118,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:A129">
-    <cfRule type="beginsWith" dxfId="65" priority="1" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="#">
       <formula>LEFT(A126,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13398,6 +13616,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
